--- a/NeuralNetwork_Loss_Function.xlsx
+++ b/NeuralNetwork_Loss_Function.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27729"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="28908"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sarahlecam/Desktop/Fall 2017/Applied Machine Learning/HWs/HW 4/cs5785/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14820" tabRatio="500"/>
+    <workbookView xWindow="80" yWindow="460" windowWidth="25600" windowHeight="14820" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -12,6 +17,9 @@
   </sheets>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -186,6 +194,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -520,11 +533,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2143459512"/>
-        <c:axId val="-2143402888"/>
+        <c:axId val="-1905782064"/>
+        <c:axId val="-1905778032"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-2143459512"/>
+        <c:axId val="-1905782064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="5000.0"/>
@@ -561,13 +574,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2143402888"/>
+        <c:crossAx val="-1905778032"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:minorUnit val="100.0"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2143402888"/>
+        <c:axId val="-1905778032"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="0.1"/>
@@ -597,7 +610,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2143459512"/>
+        <c:crossAx val="-1905782064"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1096,9 +1109,21 @@
                 <c:pt idx="0">
                   <c:v>0.1</c:v>
                 </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.0459783845592218</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.0322024773648269</c:v>
+                </c:pt>
                 <c:pt idx="3">
                   <c:v>0.0211890552441846</c:v>
                 </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.0167145033024462</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.013521884794595</c:v>
+                </c:pt>
                 <c:pt idx="6">
                   <c:v>0.0123472137384673</c:v>
                 </c:pt>
@@ -1129,6 +1154,15 @@
                 <c:pt idx="15">
                   <c:v>0.00634307563357316</c:v>
                 </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.00596710626675485</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.00574326227151617</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.00575944714926475</c:v>
+                </c:pt>
                 <c:pt idx="19">
                   <c:v>0.00526401844018489</c:v>
                 </c:pt>
@@ -1144,6 +1178,9 @@
                 <c:pt idx="23">
                   <c:v>0.00438507868331155</c:v>
                 </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.00430034261394552</c:v>
+                </c:pt>
                 <c:pt idx="25">
                   <c:v>0.00429758350325911</c:v>
                 </c:pt>
@@ -1153,6 +1190,9 @@
                 <c:pt idx="27">
                   <c:v>0.00423746083320497</c:v>
                 </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.00419185989105516</c:v>
+                </c:pt>
                 <c:pt idx="29">
                   <c:v>0.00393153898091522</c:v>
                 </c:pt>
@@ -1177,11 +1217,23 @@
                 <c:pt idx="36">
                   <c:v>0.00352672260595853</c:v>
                 </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.00352565276649762</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.00352396527664976</c:v>
+                </c:pt>
                 <c:pt idx="39">
                   <c:v>0.00352239773203068</c:v>
                 </c:pt>
                 <c:pt idx="40">
                   <c:v>0.00350850722253258</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.00349490986910277</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.00345490986910277</c:v>
                 </c:pt>
                 <c:pt idx="43">
                   <c:v>0.00341712460705193</c:v>
@@ -1199,11 +1251,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2123693160"/>
-        <c:axId val="-2113739992"/>
+        <c:axId val="-1907584880"/>
+        <c:axId val="-1907581488"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-2123693160"/>
+        <c:axId val="-1907584880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="5000.0"/>
@@ -1240,12 +1292,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2113739992"/>
+        <c:crossAx val="-1907581488"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2113739992"/>
+        <c:axId val="-1907581488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="0.05"/>
@@ -1282,7 +1334,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2123693160"/>
+        <c:crossAx val="-1907584880"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1647,11 +1699,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2113464616"/>
-        <c:axId val="-2111357544"/>
+        <c:axId val="-1905745024"/>
+        <c:axId val="-1905740992"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-2113464616"/>
+        <c:axId val="-1905745024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="5000.0"/>
@@ -1688,13 +1740,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2111357544"/>
+        <c:crossAx val="-1905740992"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:minorUnit val="100.0"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2111357544"/>
+        <c:axId val="-1905740992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="0.1"/>
@@ -1717,14 +1769,13 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2113464616"/>
+        <c:crossAx val="-1905745024"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2167,17 +2218,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C45"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView tabSelected="1" topLeftCell="F2" workbookViewId="0">
+      <selection activeCell="R11" sqref="R11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="13" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2188,7 +2239,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -2199,23 +2250,29 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>100</v>
       </c>
       <c r="B3">
         <v>5.6001514395310703E-2</v>
       </c>
-    </row>
-    <row r="4" spans="1:3">
+      <c r="C3">
+        <v>4.5978384559221798E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>200</v>
       </c>
       <c r="B4">
         <v>3.1131340989872702E-2</v>
       </c>
-    </row>
-    <row r="5" spans="1:3">
+      <c r="C4">
+        <v>3.2202477364826898E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>300</v>
       </c>
@@ -2226,23 +2283,29 @@
         <v>2.1189055244184601E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>400</v>
       </c>
       <c r="B6">
         <v>1.5704848649800401E-2</v>
       </c>
-    </row>
-    <row r="7" spans="1:3">
+      <c r="C6">
+        <v>1.6714503302446199E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>500</v>
       </c>
       <c r="B7">
         <v>1.33032572538066E-2</v>
       </c>
-    </row>
-    <row r="8" spans="1:3">
+      <c r="C7">
+        <v>1.3521884794595001E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>600</v>
       </c>
@@ -2253,7 +2316,7 @@
         <v>1.23472137384673E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>700</v>
       </c>
@@ -2264,7 +2327,7 @@
         <v>1.14246979124333E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>800</v>
       </c>
@@ -2275,7 +2338,7 @@
         <v>1.06493278171403E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>900</v>
       </c>
@@ -2286,7 +2349,7 @@
         <v>1.0239632398314999E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>1000</v>
       </c>
@@ -2297,7 +2360,7 @@
         <v>9.7626343669111604E-3</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>1100</v>
       </c>
@@ -2308,7 +2371,7 @@
         <v>7.5146041244773297E-3</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>1300</v>
       </c>
@@ -2319,7 +2382,7 @@
         <v>6.7455881210544298E-3</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>1400</v>
       </c>
@@ -2330,7 +2393,7 @@
         <v>6.5391165224090303E-3</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>1500</v>
       </c>
@@ -2341,7 +2404,7 @@
         <v>6.41049182932555E-3</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>1600</v>
       </c>
@@ -2352,31 +2415,40 @@
         <v>6.3430756335731602E-3</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>1700</v>
       </c>
       <c r="B18">
         <v>8.2490685078095097E-3</v>
       </c>
-    </row>
-    <row r="19" spans="1:3">
+      <c r="C18">
+        <v>5.9671062667548498E-3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>1800</v>
       </c>
       <c r="B19">
         <v>8.1158047376415892E-3</v>
       </c>
-    </row>
-    <row r="20" spans="1:3">
+      <c r="C19">
+        <v>5.7432622715161696E-3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>1900</v>
       </c>
       <c r="B20">
         <v>7.8534403553879306E-3</v>
       </c>
-    </row>
-    <row r="21" spans="1:3">
+      <c r="C20">
+        <v>5.7594471492647499E-3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>2100</v>
       </c>
@@ -2387,7 +2459,7 @@
         <v>5.2640184401848899E-3</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>2200</v>
       </c>
@@ -2398,7 +2470,7 @@
         <v>4.6506312701400697E-3</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>2400</v>
       </c>
@@ -2409,7 +2481,7 @@
         <v>4.4530403706653501E-3</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>2500</v>
       </c>
@@ -2420,7 +2492,7 @@
         <v>4.41132930968729E-3</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <v>2600</v>
       </c>
@@ -2431,15 +2503,18 @@
         <v>4.3850786833115503E-3</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
         <v>2700</v>
       </c>
       <c r="B26">
         <v>6.8506154046019396E-3</v>
       </c>
-    </row>
-    <row r="27" spans="1:3">
+      <c r="C26">
+        <v>4.3003426139455198E-3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
         <v>2800</v>
       </c>
@@ -2450,7 +2525,7 @@
         <v>4.2975835032591104E-3</v>
       </c>
     </row>
-    <row r="28" spans="1:3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
         <v>2900</v>
       </c>
@@ -2461,7 +2536,7 @@
         <v>4.3174048265212503E-3</v>
       </c>
     </row>
-    <row r="29" spans="1:3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
         <v>3000</v>
       </c>
@@ -2472,15 +2547,18 @@
         <v>4.2374608332049696E-3</v>
       </c>
     </row>
-    <row r="30" spans="1:3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
         <v>3100</v>
       </c>
       <c r="B30">
         <v>6.5403892530147296E-3</v>
       </c>
-    </row>
-    <row r="31" spans="1:3">
+      <c r="C30">
+        <v>4.1918598910551602E-3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
         <v>3200</v>
       </c>
@@ -2491,7 +2569,7 @@
         <v>3.9315389809152198E-3</v>
       </c>
     </row>
-    <row r="32" spans="1:3">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
         <v>3300</v>
       </c>
@@ -2502,7 +2580,7 @@
         <v>3.8959199008560099E-3</v>
       </c>
     </row>
-    <row r="33" spans="1:3">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
         <v>3600</v>
       </c>
@@ -2513,7 +2591,7 @@
         <v>3.77202219428358E-3</v>
       </c>
     </row>
-    <row r="34" spans="1:3">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
         <v>3800</v>
       </c>
@@ -2524,7 +2602,7 @@
         <v>3.6955394397949798E-3</v>
       </c>
     </row>
-    <row r="35" spans="1:3">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
         <v>3900</v>
       </c>
@@ -2535,7 +2613,7 @@
         <v>3.7617864781779001E-3</v>
       </c>
     </row>
-    <row r="36" spans="1:3">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
         <v>4000</v>
       </c>
@@ -2546,7 +2624,7 @@
         <v>3.6846786635158302E-3</v>
       </c>
     </row>
-    <row r="37" spans="1:3">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
         <v>4100</v>
       </c>
@@ -2557,7 +2635,7 @@
         <v>3.64531321514558E-3</v>
       </c>
     </row>
-    <row r="38" spans="1:3">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A38" s="1">
         <v>4200</v>
       </c>
@@ -2568,23 +2646,29 @@
         <v>3.5267226059585298E-3</v>
       </c>
     </row>
-    <row r="39" spans="1:3">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A39" s="1">
         <v>4300</v>
       </c>
       <c r="B39">
         <v>5.9001334380956996E-3</v>
       </c>
-    </row>
-    <row r="40" spans="1:3">
+      <c r="C39">
+        <v>3.5256527664976199E-3</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A40" s="1">
         <v>4400</v>
       </c>
       <c r="B40">
         <v>5.8211866024375997E-3</v>
       </c>
-    </row>
-    <row r="41" spans="1:3">
+      <c r="C40">
+        <v>3.52396527664976E-3</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A41" s="1">
         <v>4500</v>
       </c>
@@ -2595,7 +2679,7 @@
         <v>3.52239773203068E-3</v>
       </c>
     </row>
-    <row r="42" spans="1:3">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A42" s="1">
         <v>4600</v>
       </c>
@@ -2606,23 +2690,29 @@
         <v>3.5085072225325802E-3</v>
       </c>
     </row>
-    <row r="43" spans="1:3">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A43" s="1">
         <v>4800</v>
       </c>
       <c r="B43">
         <v>5.8371279835518503E-3</v>
       </c>
-    </row>
-    <row r="44" spans="1:3">
+      <c r="C43">
+        <v>3.4949098691027698E-3</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A44" s="1">
         <v>4900</v>
       </c>
       <c r="B44">
         <v>5.6946724075870904E-3</v>
       </c>
-    </row>
-    <row r="45" spans="1:3">
+      <c r="C44">
+        <v>3.4549098691027702E-3</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A45" s="1">
         <v>5000</v>
       </c>
@@ -2637,11 +2727,6 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <drawing r:id="rId1"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -2653,9 +2738,9 @@
       <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1">
         <v>0</v>
       </c>
@@ -2663,7 +2748,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>100</v>
       </c>
@@ -2671,7 +2756,7 @@
         <v>5.3952950260167699E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>300</v>
       </c>
@@ -2679,7 +2764,7 @@
         <v>2.1189055244184601E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>600</v>
       </c>
@@ -2687,7 +2772,7 @@
         <v>1.23472137384673E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>700</v>
       </c>
@@ -2695,7 +2780,7 @@
         <v>1.14246979124333E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>800</v>
       </c>
@@ -2703,7 +2788,7 @@
         <v>1.06493278171403E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>900</v>
       </c>
@@ -2711,7 +2796,7 @@
         <v>1.0239632398314999E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>1000</v>
       </c>
@@ -2719,7 +2804,7 @@
         <v>9.7626343669111604E-3</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>1100</v>
       </c>
@@ -2727,7 +2812,7 @@
         <v>7.5146041244773297E-3</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>1200</v>
       </c>
@@ -2735,7 +2820,7 @@
         <v>6.9755666927114697E-3</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>1300</v>
       </c>
@@ -2743,7 +2828,7 @@
         <v>6.7455881210544298E-3</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>1400</v>
       </c>
@@ -2751,7 +2836,7 @@
         <v>6.5391165224090303E-3</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>1500</v>
       </c>
@@ -2759,7 +2844,7 @@
         <v>6.41049182932555E-3</v>
       </c>
     </row>
-    <row r="14" spans="1:2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>1600</v>
       </c>
@@ -2767,7 +2852,7 @@
         <v>6.3430756335731602E-3</v>
       </c>
     </row>
-    <row r="15" spans="1:2">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>2100</v>
       </c>
@@ -2775,7 +2860,7 @@
         <v>5.2640184401848899E-3</v>
       </c>
     </row>
-    <row r="16" spans="1:2">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>2300</v>
       </c>
@@ -2783,7 +2868,7 @@
         <v>4.6506312701400697E-3</v>
       </c>
     </row>
-    <row r="17" spans="1:2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>2400</v>
       </c>
@@ -2791,7 +2876,7 @@
         <v>4.4530403706653501E-3</v>
       </c>
     </row>
-    <row r="18" spans="1:2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>2500</v>
       </c>
@@ -2799,7 +2884,7 @@
         <v>4.41132930968729E-3</v>
       </c>
     </row>
-    <row r="19" spans="1:2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>2600</v>
       </c>
@@ -2807,7 +2892,7 @@
         <v>4.3850786833115503E-3</v>
       </c>
     </row>
-    <row r="20" spans="1:2">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>2800</v>
       </c>
@@ -2815,7 +2900,7 @@
         <v>4.2975835032591104E-3</v>
       </c>
     </row>
-    <row r="21" spans="1:2">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>2900</v>
       </c>
@@ -2823,7 +2908,7 @@
         <v>4.3174048265212503E-3</v>
       </c>
     </row>
-    <row r="22" spans="1:2">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>3000</v>
       </c>
@@ -2831,7 +2916,7 @@
         <v>4.2374608332049696E-3</v>
       </c>
     </row>
-    <row r="23" spans="1:2">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>3200</v>
       </c>
@@ -2839,7 +2924,7 @@
         <v>3.9315389809152198E-3</v>
       </c>
     </row>
-    <row r="24" spans="1:2">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>3300</v>
       </c>
@@ -2847,7 +2932,7 @@
         <v>3.8959199008560099E-3</v>
       </c>
     </row>
-    <row r="25" spans="1:2">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>3600</v>
       </c>
@@ -2855,7 +2940,7 @@
         <v>3.77202219428358E-3</v>
       </c>
     </row>
-    <row r="26" spans="1:2">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>3700</v>
       </c>
@@ -2863,7 +2948,7 @@
         <v>3.6955394397949798E-3</v>
       </c>
     </row>
-    <row r="27" spans="1:2">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>3800</v>
       </c>
@@ -2871,7 +2956,7 @@
         <v>3.7617864781779001E-3</v>
       </c>
     </row>
-    <row r="28" spans="1:2">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>4000</v>
       </c>
@@ -2879,7 +2964,7 @@
         <v>3.6846786635158302E-3</v>
       </c>
     </row>
-    <row r="29" spans="1:2">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>4100</v>
       </c>
@@ -2887,7 +2972,7 @@
         <v>3.64531321514558E-3</v>
       </c>
     </row>
-    <row r="30" spans="1:2">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>4200</v>
       </c>
@@ -2895,7 +2980,7 @@
         <v>3.5267226059585298E-3</v>
       </c>
     </row>
-    <row r="31" spans="1:2">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>4500</v>
       </c>
@@ -2903,7 +2988,7 @@
         <v>3.52239773203068E-3</v>
       </c>
     </row>
-    <row r="32" spans="1:2">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>4600</v>
       </c>
@@ -2911,7 +2996,7 @@
         <v>3.5085072225325802E-3</v>
       </c>
     </row>
-    <row r="33" spans="1:2">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>5000</v>
       </c>
@@ -2923,10 +3008,5 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <drawing r:id="rId1"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>